--- a/data/downloads/HDFC Bank.xlsx
+++ b/data/downloads/HDFC Bank.xlsx
@@ -4102,7 +4102,7 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>1960.50</v>
+        <v>1964.70</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -4110,7 +4110,7 @@
         <v>79</v>
       </c>
       <c r="B9">
-        <v>1503294.47</v>
+        <v>1506514.99</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
